--- a/заказы/Сочи/2024/02,24/12,02,24 Сочи Ост КИ/дв 12,02,24 счрсч ост ки от филиала.xlsx
+++ b/заказы/Сочи/2024/02,24/12,02,24 Сочи Ост КИ/дв 12,02,24 счрсч ост ки от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\12,02,24 Сочи Ост КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\Сочи\2024\02,24\12,02,24 Сочи Ост КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BF121A-828B-4DA3-AE25-6383C8CACDE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA31E2-E5D1-4629-AA54-4FA1CC74BD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1570,12 +1570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BC495"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W26" sqref="W26"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,7 +1979,7 @@
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -2072,7 +2071,7 @@
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -2164,7 +2163,7 @@
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -2261,7 +2260,7 @@
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>27</v>
       </c>
@@ -2351,7 +2350,7 @@
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2444,7 +2443,7 @@
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -2534,7 +2533,7 @@
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -2636,7 +2635,7 @@
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -2728,7 +2727,7 @@
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
@@ -2830,7 +2829,7 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>33</v>
       </c>
@@ -2920,7 +2919,7 @@
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
@@ -3409,7 +3408,7 @@
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
@@ -3603,7 +3602,7 @@
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>41</v>
       </c>
@@ -3798,7 +3797,7 @@
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
     </row>
-    <row r="25" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -4182,7 +4181,7 @@
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
     </row>
-    <row r="29" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -4281,7 +4280,7 @@
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
     </row>
-    <row r="30" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -4573,7 +4572,7 @@
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
     </row>
-    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
@@ -4663,7 +4662,7 @@
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
     </row>
-    <row r="34" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>52</v>
       </c>
@@ -4749,7 +4748,7 @@
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
     </row>
-    <row r="35" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>53</v>
       </c>
@@ -4839,7 +4838,7 @@
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
     </row>
-    <row r="36" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>54</v>
       </c>
@@ -5075,7 +5074,7 @@
         <v>271.8</v>
       </c>
       <c r="Q38" s="18">
-        <f t="shared" ref="Q7:Q64" si="9">P38</f>
+        <f t="shared" ref="Q38:Q59" si="9">P38</f>
         <v>271.8</v>
       </c>
       <c r="R38" s="14"/>
@@ -5527,7 +5526,7 @@
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
     </row>
-    <row r="43" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>61</v>
       </c>
@@ -5625,7 +5624,7 @@
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
     </row>
-    <row r="44" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>62</v>
       </c>
@@ -5820,7 +5819,7 @@
       <c r="BB45" s="1"/>
       <c r="BC45" s="1"/>
     </row>
-    <row r="46" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>64</v>
       </c>
@@ -5917,7 +5916,7 @@
       <c r="BB46" s="1"/>
       <c r="BC46" s="1"/>
     </row>
-    <row r="47" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>65</v>
       </c>
@@ -6007,7 +6006,7 @@
       <c r="BB47" s="1"/>
       <c r="BC47" s="1"/>
     </row>
-    <row r="48" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>66</v>
       </c>
@@ -6099,7 +6098,7 @@
       <c r="BB48" s="1"/>
       <c r="BC48" s="1"/>
     </row>
-    <row r="49" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>67</v>
       </c>
@@ -6294,7 +6293,7 @@
       <c r="BB50" s="1"/>
       <c r="BC50" s="1"/>
     </row>
-    <row r="51" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>69</v>
       </c>
@@ -6355,7 +6354,7 @@
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="str">
-        <f t="shared" ref="W51:W53" si="12">S51</f>
+        <f t="shared" ref="W51:W52" si="12">S51</f>
         <v>выведен</v>
       </c>
       <c r="X51" s="1">
@@ -6394,7 +6393,7 @@
       <c r="BB51" s="1"/>
       <c r="BC51" s="1"/>
     </row>
-    <row r="52" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>70</v>
       </c>
@@ -6494,7 +6493,7 @@
       <c r="BB52" s="1"/>
       <c r="BC52" s="1"/>
     </row>
-    <row r="53" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>71</v>
       </c>
@@ -7283,7 +7282,7 @@
       <c r="BB60" s="1"/>
       <c r="BC60" s="1"/>
     </row>
-    <row r="61" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>79</v>
       </c>
@@ -32247,38 +32246,7 @@
       <c r="BC495" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X64" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="16">
-      <filters>
-        <filter val="10"/>
-        <filter val="103"/>
-        <filter val="112"/>
-        <filter val="12"/>
-        <filter val="132"/>
-        <filter val="138"/>
-        <filter val="14"/>
-        <filter val="140"/>
-        <filter val="17,02,"/>
-        <filter val="205"/>
-        <filter val="2446"/>
-        <filter val="272"/>
-        <filter val="30"/>
-        <filter val="303"/>
-        <filter val="32"/>
-        <filter val="335"/>
-        <filter val="40"/>
-        <filter val="44"/>
-        <filter val="47"/>
-        <filter val="5"/>
-        <filter val="56"/>
-        <filter val="61"/>
-        <filter val="68"/>
-        <filter val="75"/>
-        <filter val="8"/>
-        <filter val="80"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:X64" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
